--- a/Galaxy001/src/main/resources/Galaxy_Test_Data.xlsx
+++ b/Galaxy001/src/main/resources/Galaxy_Test_Data.xlsx
@@ -34,10 +34,10 @@
     <t xml:space="preserve">pass</t>
   </si>
   <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
     <t xml:space="preserve">lekshmi.l@kran.co.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
   </si>
   <si>
     <t xml:space="preserve">ajeesh@kran.co.in</t>
@@ -50,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +72,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,12 +122,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,7 +327,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -343,7 +353,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -351,7 +361,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -369,7 +379,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="lakshmi@kran.co.in"/>
-    <hyperlink ref="A3" r:id="rId2" display="lekshmi.l@kran.co.in"/>
+    <hyperlink ref="A4" r:id="rId2" display="lekshmi.l@kran.co.in"/>
     <hyperlink ref="A5" r:id="rId3" display="ajeesh@kran.co.in"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
